--- a/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="K114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="L114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="M114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="N114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="O114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="P114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="Q114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="R114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="S114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="T114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="U114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="V114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="W114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="X114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="Y114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="Z114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AA114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AB114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AC114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AD114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AE114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AF114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AG114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AH114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AI114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AJ114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AK114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AL114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AM114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AN114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AO114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AP114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AQ114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AR114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
       <c r="AS114" t="n">
-        <v>131681824.5</v>
+        <v>3483.011366</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="K100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="L100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="M100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="N100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="O100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="P100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="Q100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="R100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="S100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="T100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="U100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="V100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="W100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="X100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="Y100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="Z100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AA100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AB100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AC100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AD100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AE100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AF100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AG100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AH100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AI100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AJ100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AK100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AL100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AM100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AN100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AO100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AP100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AQ100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AR100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
       <c r="AS100" t="n">
-        <v>16838806.8</v>
+        <v>2155269.754</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="K101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="L101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="M101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="N101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="O101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="P101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="Q101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="R101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="S101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="T101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="U101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="V101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="W101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="X101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="Y101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="Z101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AA101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AB101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AC101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AD101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AE101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AF101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AG101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AH101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AI101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AJ101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AK101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AL101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AM101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AN101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AO101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AP101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AQ101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AR101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
       <c r="AS101" t="n">
-        <v>5465248.496</v>
+        <v>546524.8496</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="K103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="L103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="M103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="N103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="O103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="P103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="Q103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="R103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="S103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="T103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="U103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="V103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="W103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="X103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="Y103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="Z103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AA103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AB103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AC103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AD103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AE103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AF103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AG103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AH103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AI103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AK103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AL103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AM103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AN103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AO103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AP103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AR103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
       <c r="AS103" t="n">
-        <v>1132380.175</v>
+        <v>1100026.488</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="K105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="L105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="M105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="N105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="O105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="P105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="Q105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="R105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="S105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="T105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="U105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="V105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="W105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="X105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="Y105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="Z105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AA105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AB105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AC105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AD105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AE105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AF105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AG105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AH105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AI105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AJ105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AK105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AL105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AM105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AN105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AO105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AP105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AQ105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AR105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
       <c r="AS105" t="n">
-        <v>18663872.45</v>
+        <v>4852606.837</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="K106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="L106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="M106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="N106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="O106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="P106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="Q106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="R106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="S106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="T106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="U106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="V106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="W106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="X106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="Y106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="Z106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AA106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AB106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AC106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AD106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AE106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AF106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AG106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AH106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AI106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AJ106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AK106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AL106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AM106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AN106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AO106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AP106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AR106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
       <c r="AS106" t="n">
-        <v>1950375.032</v>
+        <v>26859.12335</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="K107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="L107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="M107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="N107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="O107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="P107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="Q107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="R107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="S107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="T107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="U107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="V107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="W107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="X107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="Y107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="Z107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AA107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AB107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AC107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AD107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AE107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AF107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AG107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AH107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AI107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AJ107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AK107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AL107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AM107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AN107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AO107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AP107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AQ107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AR107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
       <c r="AS107" t="n">
-        <v>960042.6936</v>
+        <v>1920085.387</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="K115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="L115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="M115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="N115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="O115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="P115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="Q115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="R115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="S115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="T115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="U115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="V115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="W115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="X115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="Y115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="Z115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AA115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AB115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AC115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AD115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AE115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AF115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AG115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AH115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AI115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AJ115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AK115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AL115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AM115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AN115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AO115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AP115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AQ115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AR115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
       <c r="AS115" t="n">
-        <v>831419.6243</v>
+        <v>8314196.243</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
@@ -12973,112 +12973,112 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="K100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="L100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="M100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="N100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="O100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="P100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="Q100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="R100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="S100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="T100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="U100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="V100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="W100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="X100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="Y100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="Z100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AA100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AB100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AC100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AD100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AE100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AF100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AG100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AH100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AI100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AJ100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AK100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AL100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AM100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AN100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AO100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AP100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AQ100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AR100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
       <c r="AS100">
-        <v>12093689.42</v>
+        <v>2155269.754</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13095,112 +13095,112 @@
         <v>0.8</v>
       </c>
       <c r="J101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="K101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="L101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="M101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="N101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="O101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="P101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="Q101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="R101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="S101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="T101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="U101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="V101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="W101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="X101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="Y101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="Z101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AA101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AB101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AC101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AD101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AE101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AF101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AG101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AH101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AI101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AJ101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AK101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AL101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AM101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AN101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AO101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AP101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AQ101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AR101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
       <c r="AS101">
-        <v>939774.9022</v>
+        <v>546524.8496</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13217,112 +13217,112 @@
         <v>0.8</v>
       </c>
       <c r="J102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="K102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="L102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="M102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="N102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="O102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="P102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="Q102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="R102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="S102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="T102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="U102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="V102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="W102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="X102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="Y102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="Z102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AA102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AB102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AC102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AD102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AE102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AF102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AG102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AH102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AI102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AJ102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AK102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AL102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AM102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AN102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AO102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AP102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AQ102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AR102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
       <c r="AS102">
-        <v>429809.4968</v>
+        <v>244173.8486</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13339,112 +13339,112 @@
         <v>0.8</v>
       </c>
       <c r="J103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="K103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="L103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="M103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="N103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="O103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="P103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="Q103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="R103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="S103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="T103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="U103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="V103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="W103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="X103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="Y103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="Z103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AA103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AB103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AC103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AD103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AE103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AF103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AG103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AH103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AI103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AJ103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AK103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AL103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AM103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AN103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AO103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AP103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AQ103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AR103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
       <c r="AS103">
-        <v>66995.52164000001</v>
+        <v>1100026.488</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13461,112 +13461,112 @@
         <v>0.8</v>
       </c>
       <c r="J104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="K104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="L104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="M104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="N104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="O104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="P104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="Q104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="R104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="S104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="T104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="U104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="V104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="W104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="X104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="Y104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="Z104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AA104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AB104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AC104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AD104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AE104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AF104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AG104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AH104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AI104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AJ104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AK104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AL104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AM104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AN104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AO104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AP104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AQ104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AR104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
       <c r="AS104">
-        <v>329257.5412</v>
+        <v>1657899.811</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13583,112 +13583,112 @@
         <v>0.8</v>
       </c>
       <c r="J105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="K105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="L105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="M105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="N105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="O105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="P105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="Q105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="R105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="S105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="T105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="U105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="V105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="W105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="X105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="Y105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="Z105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AA105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AB105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AC105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AD105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AE105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AF105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AG105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AH105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AI105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AJ105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AK105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AL105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AM105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AN105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AO105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AP105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AQ105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AR105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
       <c r="AS105">
-        <v>6318025.432</v>
+        <v>4852606.837</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -13705,112 +13705,112 @@
         <v>0.8</v>
       </c>
       <c r="J106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="K106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="L106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="M106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="N106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="O106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="P106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="Q106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="R106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="S106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="T106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="U106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="V106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="W106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="X106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="Y106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="Z106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AA106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AB106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AC106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AD106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AE106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AF106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AG106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AH106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AI106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AJ106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AK106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AL106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AM106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AN106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AO106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AP106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AQ106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AR106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
       <c r="AS106">
-        <v>941254.4374000001</v>
+        <v>26859.12335</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -13827,112 +13827,112 @@
         <v>0.8</v>
       </c>
       <c r="J107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="K107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="L107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="M107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="N107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="O107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="P107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="Q107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="R107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="S107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="T107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="U107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="V107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="W107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="X107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="Y107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="Z107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AA107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AB107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AC107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AD107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AE107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AF107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AG107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AH107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AI107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AJ107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AK107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AL107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AM107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AN107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AO107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AP107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AQ107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AR107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
       <c r="AS107">
-        <v>868497.3273</v>
+        <v>1920085.387</v>
       </c>
     </row>
     <row r="108" spans="1:45">
@@ -14681,112 +14681,112 @@
         <v>0.8</v>
       </c>
       <c r="J114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="K114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="L114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="M114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="N114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="O114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="P114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="Q114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="R114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="S114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="T114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="U114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="V114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="W114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="X114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="Y114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="Z114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AA114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AB114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AC114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AD114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AE114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AF114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AG114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AH114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AI114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AJ114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AK114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AL114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AM114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AN114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AO114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AP114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AQ114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AR114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
       <c r="AS114">
-        <v>33362.60858</v>
+        <v>3483.011366</v>
       </c>
     </row>
     <row r="115" spans="1:45">
@@ -14803,112 +14803,112 @@
         <v>0.8</v>
       </c>
       <c r="J115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="K115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="L115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="M115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="N115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="O115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="P115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="Q115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="R115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="S115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="T115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="U115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="V115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="W115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="X115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="Y115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="Z115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AA115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AB115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AC115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AD115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AE115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AF115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AG115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AH115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AI115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AJ115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AK115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AL115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AM115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AN115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AO115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AP115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AQ115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AR115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
       <c r="AS115">
-        <v>189245.5729</v>
+        <v>8314196.243</v>
       </c>
     </row>
     <row r="116" spans="1:45">

--- a/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/peru/model_input_variables_peru_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.003254659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1.00235905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.00222839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.974586993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.933858517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.021584623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.996049716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.997408661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.027195254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.062101114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.971558016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.025502773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.914601503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>12093689.42</v>
+        <v>17654249.7138674</v>
       </c>
       <c r="K96">
-        <v>12093689.42</v>
+        <v>14052415.3315779</v>
       </c>
       <c r="L96">
-        <v>12093689.42</v>
+        <v>13820024.81106</v>
       </c>
       <c r="M96">
-        <v>12093689.42</v>
+        <v>18419922.1048115</v>
       </c>
       <c r="N96">
-        <v>12093689.42</v>
+        <v>15265204.5558733</v>
       </c>
       <c r="O96">
-        <v>12093689.42</v>
+        <v>12093689.4248959</v>
       </c>
       <c r="P96">
-        <v>12093689.42</v>
+        <v>12093690</v>
       </c>
       <c r="Q96">
-        <v>12093689.42</v>
+        <v>12982635.5708305</v>
       </c>
       <c r="R96">
-        <v>12093689.42</v>
+        <v>13936923.0040619</v>
       </c>
       <c r="S96">
-        <v>12093689.42</v>
+        <v>14961355.2472786</v>
       </c>
       <c r="T96">
-        <v>12093689.42</v>
+        <v>16061088.2882851</v>
       </c>
       <c r="U96">
-        <v>12093689.42</v>
+        <v>17241657.1052954</v>
       </c>
       <c r="V96">
-        <v>12093689.42</v>
+        <v>18509003.5245877</v>
       </c>
       <c r="W96">
-        <v>12093689.42</v>
+        <v>19869506.1258342</v>
       </c>
       <c r="X96">
-        <v>12093689.42</v>
+        <v>21330012.3456191</v>
       </c>
       <c r="Y96">
-        <v>12093689.42</v>
+        <v>22897872.9407227</v>
       </c>
       <c r="Z96">
-        <v>12093689.42</v>
+        <v>24580978.9846262</v>
       </c>
       <c r="AA96">
-        <v>12093689.42</v>
+        <v>26387801.5834411</v>
       </c>
       <c r="AB96">
-        <v>12093689.42</v>
+        <v>28327434.5111542</v>
       </c>
       <c r="AC96">
-        <v>12093689.42</v>
+        <v>30409639.9787726</v>
       </c>
       <c r="AD96">
-        <v>12093689.42</v>
+        <v>32644897.7677254</v>
       </c>
       <c r="AE96">
-        <v>12093689.42</v>
+        <v>35044457.9748114</v>
       </c>
       <c r="AF96">
-        <v>12093689.42</v>
+        <v>37620397.6341598</v>
       </c>
       <c r="AG96">
-        <v>12093689.42</v>
+        <v>40385681.5011822</v>
       </c>
       <c r="AH96">
-        <v>12093689.42</v>
+        <v>43354227.3044439</v>
       </c>
       <c r="AI96">
-        <v>12093689.42</v>
+        <v>46540975.7938681</v>
       </c>
       <c r="AJ96">
-        <v>12093689.42</v>
+        <v>49961965.9378266</v>
       </c>
       <c r="AK96">
-        <v>12093689.42</v>
+        <v>53634415.6475857</v>
       </c>
       <c r="AL96">
-        <v>12093689.42</v>
+        <v>57576808.4353952</v>
       </c>
       <c r="AM96">
-        <v>12093689.42</v>
+        <v>61808986.4423726</v>
       </c>
       <c r="AN96">
-        <v>12093689.42</v>
+        <v>66352250.3043925</v>
       </c>
       <c r="AO96">
-        <v>12093689.42</v>
+        <v>71229466.3586098</v>
       </c>
       <c r="AP96">
-        <v>12093689.42</v>
+        <v>76465181.7301885</v>
       </c>
       <c r="AQ96">
-        <v>12093689.42</v>
+        <v>82085747.8784693</v>
       </c>
       <c r="AR96">
-        <v>12093689.42</v>
+        <v>88119453.22438741</v>
       </c>
       <c r="AS96">
-        <v>12093689.42</v>
+        <v>94596665.5266563</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>939774.9022</v>
+        <v>852872.099516197</v>
       </c>
       <c r="K97">
-        <v>939774.9022</v>
+        <v>860298.351874753</v>
       </c>
       <c r="L97">
-        <v>939774.9022</v>
+        <v>929757.423772548</v>
       </c>
       <c r="M97">
-        <v>939774.9022</v>
+        <v>915785.743949109</v>
       </c>
       <c r="N97">
-        <v>939774.9022</v>
+        <v>950156.14250452</v>
       </c>
       <c r="O97">
-        <v>939774.9022</v>
+        <v>939774.902194865</v>
       </c>
       <c r="P97">
-        <v>939774.9022</v>
+        <v>939774.9</v>
       </c>
       <c r="Q97">
-        <v>939774.9022</v>
+        <v>979711.433935985</v>
       </c>
       <c r="R97">
-        <v>939774.9022</v>
+        <v>1021345.10485958</v>
       </c>
       <c r="S97">
-        <v>939774.9022</v>
+        <v>1064748.03405101</v>
       </c>
       <c r="T97">
-        <v>939774.9022</v>
+        <v>1109995.40764563</v>
       </c>
       <c r="U97">
-        <v>939774.9022</v>
+        <v>1157165.60687762</v>
       </c>
       <c r="V97">
-        <v>939774.9022</v>
+        <v>1206340.34385839</v>
       </c>
       <c r="W97">
-        <v>939774.9022</v>
+        <v>1257604.80312501</v>
       </c>
       <c r="X97">
-        <v>939774.9022</v>
+        <v>1311047.78920398</v>
       </c>
       <c r="Y97">
-        <v>939774.9022</v>
+        <v>1366761.88044566</v>
       </c>
       <c r="Z97">
-        <v>939774.9022</v>
+        <v>1424843.58939621</v>
       </c>
       <c r="AA97">
-        <v>939774.9022</v>
+        <v>1485393.52998452</v>
       </c>
       <c r="AB97">
-        <v>939774.9022</v>
+        <v>1548516.59181403</v>
       </c>
       <c r="AC97">
-        <v>939774.9022</v>
+        <v>1614322.12186108</v>
       </c>
       <c r="AD97">
-        <v>939774.9022</v>
+        <v>1682924.11389483</v>
       </c>
       <c r="AE97">
-        <v>939774.9022</v>
+        <v>1754441.40594663</v>
       </c>
       <c r="AF97">
-        <v>939774.9022</v>
+        <v>1828997.88617108</v>
       </c>
       <c r="AG97">
-        <v>939774.9022</v>
+        <v>1906722.70745532</v>
       </c>
       <c r="AH97">
-        <v>939774.9022</v>
+        <v>1987750.51114831</v>
       </c>
       <c r="AI97">
-        <v>939774.9022</v>
+        <v>2072221.6602977</v>
       </c>
       <c r="AJ97">
-        <v>939774.9022</v>
+        <v>2160282.48279824</v>
       </c>
       <c r="AK97">
-        <v>939774.9022</v>
+        <v>2252085.52487308</v>
       </c>
       <c r="AL97">
-        <v>939774.9022</v>
+        <v>2347789.81532693</v>
       </c>
       <c r="AM97">
-        <v>939774.9022</v>
+        <v>2447561.14102882</v>
       </c>
       <c r="AN97">
-        <v>939774.9022</v>
+        <v>2551572.33410186</v>
       </c>
       <c r="AO97">
-        <v>939774.9022</v>
+        <v>2660003.57131726</v>
       </c>
       <c r="AP97">
-        <v>939774.9022</v>
+        <v>2773042.68621143</v>
       </c>
       <c r="AQ97">
-        <v>939774.9022</v>
+        <v>2890885.4944667</v>
       </c>
       <c r="AR97">
-        <v>939774.9022</v>
+        <v>3013736.13311944</v>
       </c>
       <c r="AS97">
-        <v>939774.9022</v>
+        <v>3141807.41418305</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>429809.4968</v>
+        <v>491353.270110164</v>
       </c>
       <c r="K98">
-        <v>429809.4968</v>
+        <v>453230.009368236</v>
       </c>
       <c r="L98">
-        <v>429809.4968</v>
+        <v>469199.451919957</v>
       </c>
       <c r="M98">
-        <v>429809.4968</v>
+        <v>441982.475839454</v>
       </c>
       <c r="N98">
-        <v>429809.4968</v>
+        <v>457289.149611657</v>
       </c>
       <c r="O98">
-        <v>429809.4968</v>
+        <v>429809.496763082</v>
       </c>
       <c r="P98">
-        <v>429809.4968</v>
+        <v>429809.5</v>
       </c>
       <c r="Q98">
-        <v>429809.4968</v>
+        <v>444278.142383931</v>
       </c>
       <c r="R98">
-        <v>429809.4968</v>
+        <v>459233.841504471</v>
       </c>
       <c r="S98">
-        <v>429809.4968</v>
+        <v>474692.993113095</v>
       </c>
       <c r="T98">
-        <v>429809.4968</v>
+        <v>490672.544890129</v>
       </c>
       <c r="U98">
-        <v>429809.4968</v>
+        <v>507190.015024289</v>
       </c>
       <c r="V98">
-        <v>429809.4968</v>
+        <v>524263.51141766</v>
       </c>
       <c r="W98">
-        <v>429809.4968</v>
+        <v>541911.751537169</v>
       </c>
       <c r="X98">
-        <v>429809.4968</v>
+        <v>560154.0829343121</v>
       </c>
       <c r="Y98">
-        <v>429809.4968</v>
+        <v>579010.5044556489</v>
       </c>
       <c r="Z98">
-        <v>429809.4968</v>
+        <v>598501.688167289</v>
       </c>
       <c r="AA98">
-        <v>429809.4968</v>
+        <v>618649.0020174281</v>
       </c>
       <c r="AB98">
-        <v>429809.4968</v>
+        <v>639474.533261771</v>
       </c>
       <c r="AC98">
-        <v>429809.4968</v>
+        <v>661001.112677525</v>
       </c>
       <c r="AD98">
-        <v>429809.4968</v>
+        <v>683252.339592498</v>
       </c>
       <c r="AE98">
-        <v>429809.4968</v>
+        <v>706252.607756761</v>
       </c>
       <c r="AF98">
-        <v>429809.4968</v>
+        <v>730027.132085216</v>
       </c>
       <c r="AG98">
-        <v>429809.4968</v>
+        <v>754601.976300403</v>
       </c>
       <c r="AH98">
-        <v>429809.4968</v>
+        <v>780004.081505843</v>
       </c>
       <c r="AI98">
-        <v>429809.4968</v>
+        <v>806261.295721243</v>
       </c>
       <c r="AJ98">
-        <v>429809.4968</v>
+        <v>833402.404411943</v>
       </c>
       <c r="AK98">
-        <v>429809.4968</v>
+        <v>861457.162046067</v>
       </c>
       <c r="AL98">
-        <v>429809.4968</v>
+        <v>890456.3247139941</v>
       </c>
       <c r="AM98">
-        <v>429809.4968</v>
+        <v>920431.683845879</v>
       </c>
       <c r="AN98">
-        <v>429809.4968</v>
+        <v>951416.101064216</v>
       </c>
       <c r="AO98">
-        <v>429809.4968</v>
+        <v>983443.544209636</v>
       </c>
       <c r="AP98">
-        <v>429809.4968</v>
+        <v>1016549.12457944</v>
       </c>
       <c r="AQ98">
-        <v>429809.4968</v>
+        <v>1050769.13541968</v>
       </c>
       <c r="AR98">
-        <v>429809.4968</v>
+        <v>1086141.09171301</v>
       </c>
       <c r="AS98">
-        <v>429809.4968</v>
+        <v>1122703.77130592</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>66995.52164000001</v>
+        <v>72764.11029571939</v>
       </c>
       <c r="K99">
-        <v>66995.52164000001</v>
+        <v>70201.0658287004</v>
       </c>
       <c r="L99">
-        <v>66995.52164000001</v>
+        <v>71386.4490428062</v>
       </c>
       <c r="M99">
-        <v>66995.52164000001</v>
+        <v>79583.3540969824</v>
       </c>
       <c r="N99">
-        <v>66995.52164000001</v>
+        <v>78440.0908814858</v>
       </c>
       <c r="O99">
-        <v>66995.52164000001</v>
+        <v>66995.5216394048</v>
       </c>
       <c r="P99">
-        <v>66995.52164000001</v>
+        <v>66995.52</v>
       </c>
       <c r="Q99">
-        <v>66995.52164000001</v>
+        <v>69214.9073624498</v>
       </c>
       <c r="R99">
-        <v>66995.52164000001</v>
+        <v>71507.8172569227</v>
       </c>
       <c r="S99">
-        <v>66995.52164000001</v>
+        <v>73876.68529371649</v>
       </c>
       <c r="T99">
-        <v>66995.52164000001</v>
+        <v>76324.02776856491</v>
       </c>
       <c r="U99">
-        <v>66995.52164000001</v>
+        <v>78852.44433553571</v>
       </c>
       <c r="V99">
-        <v>66995.52164000001</v>
+        <v>81464.6207684757</v>
       </c>
       <c r="W99">
-        <v>66995.52164000001</v>
+        <v>84163.3318139355</v>
       </c>
       <c r="X99">
-        <v>66995.52164000001</v>
+        <v>86951.4441386031</v>
       </c>
       <c r="Y99">
-        <v>66995.52164000001</v>
+        <v>89831.91937437969</v>
       </c>
       <c r="Z99">
-        <v>66995.52164000001</v>
+        <v>92807.8172643298</v>
       </c>
       <c r="AA99">
-        <v>66995.52164000001</v>
+        <v>95882.298912849</v>
       </c>
       <c r="AB99">
-        <v>66995.52164000001</v>
+        <v>99058.63014350169</v>
       </c>
       <c r="AC99">
-        <v>66995.52164000001</v>
+        <v>102340.184968094</v>
       </c>
       <c r="AD99">
-        <v>66995.52164000001</v>
+        <v>105730.44917067</v>
       </c>
       <c r="AE99">
-        <v>66995.52164000001</v>
+        <v>109233.024010234</v>
       </c>
       <c r="AF99">
-        <v>66995.52164000001</v>
+        <v>112851.630046138</v>
       </c>
       <c r="AG99">
-        <v>66995.52164000001</v>
+        <v>116590.111090188</v>
       </c>
       <c r="AH99">
-        <v>66995.52164000001</v>
+        <v>120452.438289681</v>
       </c>
       <c r="AI99">
-        <v>66995.52164000001</v>
+        <v>124442.714345697</v>
       </c>
       <c r="AJ99">
-        <v>66995.52164000001</v>
+        <v>128565.177871136</v>
       </c>
       <c r="AK99">
-        <v>66995.52164000001</v>
+        <v>132824.207893118</v>
       </c>
       <c r="AL99">
-        <v>66995.52164000001</v>
+        <v>137224.328504547</v>
       </c>
       <c r="AM99">
-        <v>66995.52164000001</v>
+        <v>141770.213669759</v>
       </c>
       <c r="AN99">
-        <v>66995.52164000001</v>
+        <v>146466.692189374</v>
       </c>
       <c r="AO99">
-        <v>66995.52164000001</v>
+        <v>151318.752829622</v>
       </c>
       <c r="AP99">
-        <v>66995.52164000001</v>
+        <v>156331.549621582</v>
       </c>
       <c r="AQ99">
-        <v>66995.52164000001</v>
+        <v>161510.407335984</v>
       </c>
       <c r="AR99">
-        <v>66995.52164000001</v>
+        <v>166860.827139362</v>
       </c>
       <c r="AS99">
-        <v>66995.52164000001</v>
+        <v>172388.492437594</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>329257.5412</v>
+        <v>265449.737103148</v>
       </c>
       <c r="K100">
-        <v>329257.5412</v>
+        <v>133762.956322085</v>
       </c>
       <c r="L100">
-        <v>329257.5412</v>
+        <v>342546.377465837</v>
       </c>
       <c r="M100">
-        <v>329257.5412</v>
+        <v>321850.093104366</v>
       </c>
       <c r="N100">
-        <v>329257.5412</v>
+        <v>304542.555223962</v>
       </c>
       <c r="O100">
-        <v>329257.5412</v>
+        <v>329257.541195101</v>
       </c>
       <c r="P100">
-        <v>329257.5412</v>
+        <v>329257.5</v>
       </c>
       <c r="Q100">
-        <v>329257.5412</v>
+        <v>587980.17819684</v>
       </c>
       <c r="R100">
-        <v>329257.5412</v>
+        <v>1050000.95655342</v>
       </c>
       <c r="S100">
-        <v>329257.5412</v>
+        <v>1875066.62579025</v>
       </c>
       <c r="T100">
-        <v>329257.5412</v>
+        <v>3348449.18874467</v>
       </c>
       <c r="U100">
-        <v>329257.5412</v>
+        <v>5979580.57350601</v>
       </c>
       <c r="V100">
-        <v>329257.5412</v>
+        <v>10678192.1479463</v>
       </c>
       <c r="W100">
-        <v>329257.5412</v>
+        <v>19068860.4571484</v>
       </c>
       <c r="X100">
-        <v>329257.5412</v>
+        <v>34052715.4874371</v>
       </c>
       <c r="Y100">
-        <v>329257.5412</v>
+        <v>60810525.8661976</v>
       </c>
       <c r="Z100">
-        <v>329257.5412</v>
+        <v>108593984.450014</v>
       </c>
       <c r="AA100">
-        <v>329257.5412</v>
+        <v>193924543.337734</v>
       </c>
       <c r="AB100">
-        <v>329257.5412</v>
+        <v>346305817.023034</v>
       </c>
       <c r="AC100">
-        <v>329257.5412</v>
+        <v>618424655.486377</v>
       </c>
       <c r="AD100">
-        <v>329257.5412</v>
+        <v>1104367976.8394</v>
       </c>
       <c r="AE100">
-        <v>329257.5412</v>
+        <v>1972153951.89757</v>
       </c>
       <c r="AF100">
-        <v>329257.5412</v>
+        <v>3521825416.48508</v>
       </c>
       <c r="AG100">
-        <v>329257.5412</v>
+        <v>6289191699.39352</v>
       </c>
       <c r="AH100">
-        <v>329257.5412</v>
+        <v>11231088300.5656</v>
       </c>
       <c r="AI100">
-        <v>329257.5412</v>
+        <v>20056209198.9128</v>
       </c>
       <c r="AJ100">
-        <v>329257.5412</v>
+        <v>35815899284.6931</v>
       </c>
       <c r="AK100">
-        <v>329257.5412</v>
+        <v>63959177372.4028</v>
       </c>
       <c r="AL100">
-        <v>329257.5412</v>
+        <v>114216771094.808</v>
       </c>
       <c r="AM100">
-        <v>329257.5412</v>
+        <v>203965581410.88</v>
       </c>
       <c r="AN100">
-        <v>329257.5412</v>
+        <v>364236862953.741</v>
       </c>
       <c r="AO100">
-        <v>329257.5412</v>
+        <v>650445488972.608</v>
       </c>
       <c r="AP100">
-        <v>329257.5412</v>
+        <v>1161550016365.44</v>
       </c>
       <c r="AQ100">
-        <v>329257.5412</v>
+        <v>2074268272118.62</v>
       </c>
       <c r="AR100">
-        <v>329257.5412</v>
+        <v>3704178730228.94</v>
       </c>
       <c r="AS100">
-        <v>329257.5412</v>
+        <v>6614833891021.33</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>6318025.432</v>
+        <v>5534339.79452095</v>
       </c>
       <c r="K101">
-        <v>6318025.432</v>
+        <v>5239407.35483547</v>
       </c>
       <c r="L101">
-        <v>6318025.432</v>
+        <v>5305976.42178821</v>
       </c>
       <c r="M101">
-        <v>6318025.432</v>
+        <v>6067662.89541135</v>
       </c>
       <c r="N101">
-        <v>6318025.432</v>
+        <v>6355391.96059473</v>
       </c>
       <c r="O101">
-        <v>6318025.432</v>
+        <v>6318025.43231926</v>
       </c>
       <c r="P101">
-        <v>6318025.432</v>
+        <v>6318025</v>
       </c>
       <c r="Q101">
-        <v>6318025.432</v>
+        <v>6489761.70275998</v>
       </c>
       <c r="R101">
-        <v>6318025.432</v>
+        <v>6666166.55657585</v>
       </c>
       <c r="S101">
-        <v>6318025.432</v>
+        <v>6847366.45123838</v>
       </c>
       <c r="T101">
-        <v>6318025.432</v>
+        <v>7033491.72565958</v>
       </c>
       <c r="U101">
-        <v>6318025.432</v>
+        <v>7224676.26162681</v>
       </c>
       <c r="V101">
-        <v>6318025.432</v>
+        <v>7421057.58010531</v>
       </c>
       <c r="W101">
-        <v>6318025.432</v>
+        <v>7622776.94015837</v>
       </c>
       <c r="X101">
-        <v>6318025.432</v>
+        <v>7829979.44055646</v>
       </c>
       <c r="Y101">
-        <v>6318025.432</v>
+        <v>8042814.12414819</v>
       </c>
       <c r="Z101">
-        <v>6318025.432</v>
+        <v>8261434.08506835</v>
       </c>
       <c r="AA101">
-        <v>6318025.432</v>
+        <v>8485996.578860089</v>
       </c>
       <c r="AB101">
-        <v>6318025.432</v>
+        <v>8716663.135590389</v>
       </c>
       <c r="AC101">
-        <v>6318025.432</v>
+        <v>8953599.67604026</v>
       </c>
       <c r="AD101">
-        <v>6318025.432</v>
+        <v>9196976.63105326</v>
       </c>
       <c r="AE101">
-        <v>6318025.432</v>
+        <v>9446969.064128101</v>
       </c>
       <c r="AF101">
-        <v>6318025.432</v>
+        <v>9703756.79734361</v>
       </c>
       <c r="AG101">
-        <v>6318025.432</v>
+        <v>9967524.54070654</v>
       </c>
       <c r="AH101">
-        <v>6318025.432</v>
+        <v>10238462.0250153</v>
       </c>
       <c r="AI101">
-        <v>6318025.432</v>
+        <v>10516764.1383355</v>
       </c>
       <c r="AJ101">
-        <v>6318025.432</v>
+        <v>10802631.0661843</v>
       </c>
       <c r="AK101">
-        <v>6318025.432</v>
+        <v>11096268.4355266</v>
       </c>
       <c r="AL101">
-        <v>6318025.432</v>
+        <v>11397887.4626842</v>
       </c>
       <c r="AM101">
-        <v>6318025.432</v>
+        <v>11707705.1052656</v>
       </c>
       <c r="AN101">
-        <v>6318025.432</v>
+        <v>12025944.2182265</v>
       </c>
       <c r="AO101">
-        <v>6318025.432</v>
+        <v>12352833.7141708</v>
       </c>
       <c r="AP101">
-        <v>6318025.432</v>
+        <v>12688608.7280104</v>
       </c>
       <c r="AQ101">
-        <v>6318025.432</v>
+        <v>13033510.7860998</v>
       </c>
       <c r="AR101">
-        <v>6318025.432</v>
+        <v>13387787.9799684</v>
       </c>
       <c r="AS101">
-        <v>6318025.432</v>
+        <v>13751695.1447753</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>536578514.980824</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>597286241.842937</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>637099100.553869</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>656367407.5719891</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>574373777.445775</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>457781451.868233</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>457781500</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>478465790.66445</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>500084675.4099</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>522680382.713528</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>546297049.0940011</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>570980805.323975</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>596779866.5379879</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>623744626.411778</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>651927755.5969681</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>681384304.603405</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>712171811.33011</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>744350413.454879</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>777982965.902071</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>813135163.6180331</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>849875669.893975</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>888276250.486968</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>928411913.801017</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>970361057.402055</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>1014205621.15303</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>1060031247.26822</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>1107927447.59937</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>1157987778.48051</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>1210310023.47288</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>1264996384.36691</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>1322153680.8145</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>1381893558.98135</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>1444332709.62703</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>1509593096.03866</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>1577802192.26363</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>1649093232.10641</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>941254.4374000001</v>
+        <v>1299102.98512899</v>
       </c>
       <c r="K103">
-        <v>941254.4374000001</v>
+        <v>1228137.20338854</v>
       </c>
       <c r="L103">
-        <v>941254.4374000001</v>
+        <v>1203104.99211033</v>
       </c>
       <c r="M103">
-        <v>941254.4374000001</v>
+        <v>1329584.91825699</v>
       </c>
       <c r="N103">
-        <v>941254.4374000001</v>
+        <v>1194752.03597448</v>
       </c>
       <c r="O103">
-        <v>941254.4374000001</v>
+        <v>941254.437436514</v>
       </c>
       <c r="P103">
-        <v>941254.4374000001</v>
+        <v>941254.4</v>
       </c>
       <c r="Q103">
-        <v>941254.4374000001</v>
+        <v>940420.10532612</v>
       </c>
       <c r="R103">
-        <v>941254.4374000001</v>
+        <v>939586.550141589</v>
       </c>
       <c r="S103">
-        <v>941254.4374000001</v>
+        <v>938753.733790949</v>
       </c>
       <c r="T103">
-        <v>941254.4374000001</v>
+        <v>937921.655619323</v>
       </c>
       <c r="U103">
-        <v>941254.4374000001</v>
+        <v>937090.314972416</v>
       </c>
       <c r="V103">
-        <v>941254.4374000001</v>
+        <v>936259.711196513</v>
       </c>
       <c r="W103">
-        <v>941254.4374000001</v>
+        <v>935429.843638476</v>
       </c>
       <c r="X103">
-        <v>941254.4374000001</v>
+        <v>934600.711645749</v>
       </c>
       <c r="Y103">
-        <v>941254.4374000001</v>
+        <v>933772.314566351</v>
       </c>
       <c r="Z103">
-        <v>941254.4374000001</v>
+        <v>932944.651748882</v>
       </c>
       <c r="AA103">
-        <v>941254.4374000001</v>
+        <v>932117.7225425181</v>
       </c>
       <c r="AB103">
-        <v>941254.4374000001</v>
+        <v>931291.526297012</v>
       </c>
       <c r="AC103">
-        <v>941254.4374000001</v>
+        <v>930466.062362693</v>
       </c>
       <c r="AD103">
-        <v>941254.4374000001</v>
+        <v>929641.330090467</v>
       </c>
       <c r="AE103">
-        <v>941254.4374000001</v>
+        <v>928817.3288318129</v>
       </c>
       <c r="AF103">
-        <v>941254.4374000001</v>
+        <v>927994.057938789</v>
       </c>
       <c r="AG103">
-        <v>941254.4374000001</v>
+        <v>927171.5167640219</v>
       </c>
       <c r="AH103">
-        <v>941254.4374000001</v>
+        <v>926349.704660717</v>
       </c>
       <c r="AI103">
-        <v>941254.4374000001</v>
+        <v>925528.62098265</v>
       </c>
       <c r="AJ103">
-        <v>941254.4374000001</v>
+        <v>924708.265084171</v>
       </c>
       <c r="AK103">
-        <v>941254.4374000001</v>
+        <v>923888.636320202</v>
       </c>
       <c r="AL103">
-        <v>941254.4374000001</v>
+        <v>923069.734046237</v>
       </c>
       <c r="AM103">
-        <v>941254.4374000001</v>
+        <v>922251.55761834</v>
       </c>
       <c r="AN103">
-        <v>941254.4374000001</v>
+        <v>921434.106393147</v>
       </c>
       <c r="AO103">
-        <v>941254.4374000001</v>
+        <v>920617.3797278641</v>
       </c>
       <c r="AP103">
-        <v>941254.4374000001</v>
+        <v>919801.376980267</v>
       </c>
       <c r="AQ103">
-        <v>941254.4374000001</v>
+        <v>918986.0975087</v>
       </c>
       <c r="AR103">
-        <v>941254.4374000001</v>
+        <v>918171.540672078</v>
       </c>
       <c r="AS103">
-        <v>941254.4374000001</v>
+        <v>917357.705829881</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>868497.3273</v>
+        <v>847891.146667666</v>
       </c>
       <c r="K104">
-        <v>868497.3273</v>
+        <v>802315.048000644</v>
       </c>
       <c r="L104">
-        <v>868497.3273</v>
+        <v>823092.738137487</v>
       </c>
       <c r="M104">
-        <v>868497.3273</v>
+        <v>938431.647770099</v>
       </c>
       <c r="N104">
-        <v>868497.3273</v>
+        <v>908454.125640036</v>
       </c>
       <c r="O104">
-        <v>868497.3273</v>
+        <v>868497.3272648409</v>
       </c>
       <c r="P104">
-        <v>868497.3273</v>
+        <v>868497.3</v>
       </c>
       <c r="Q104">
-        <v>868497.3273</v>
+        <v>898615.720978362</v>
       </c>
       <c r="R104">
-        <v>868497.3273</v>
+        <v>929778.6118499869</v>
       </c>
       <c r="S104">
-        <v>868497.3273</v>
+        <v>962022.193549521</v>
       </c>
       <c r="T104">
-        <v>868497.3273</v>
+        <v>995383.943109194</v>
       </c>
       <c r="U104">
-        <v>868497.3273</v>
+        <v>1029902.63721874</v>
       </c>
       <c r="V104">
-        <v>868497.3273</v>
+        <v>1065618.39729592</v>
       </c>
       <c r="W104">
-        <v>868497.3273</v>
+        <v>1102572.73612005</v>
       </c>
       <c r="X104">
-        <v>868497.3273</v>
+        <v>1140808.60608272</v>
       </c>
       <c r="Y104">
-        <v>868497.3273</v>
+        <v>1180370.44911175</v>
       </c>
       <c r="Z104">
-        <v>868497.3273</v>
+        <v>1221304.24832652</v>
       </c>
       <c r="AA104">
-        <v>868497.3273</v>
+        <v>1263657.58148456</v>
       </c>
       <c r="AB104">
-        <v>868497.3273</v>
+        <v>1307479.67628169</v>
       </c>
       <c r="AC104">
-        <v>868497.3273</v>
+        <v>1352821.46756982</v>
       </c>
       <c r="AD104">
-        <v>868497.3273</v>
+        <v>1399735.65655905</v>
       </c>
       <c r="AE104">
-        <v>868497.3273</v>
+        <v>1448276.77207279</v>
       </c>
       <c r="AF104">
-        <v>868497.3273</v>
+        <v>1498501.23392715</v>
       </c>
       <c r="AG104">
-        <v>868497.3273</v>
+        <v>1550467.41850828</v>
       </c>
       <c r="AH104">
-        <v>868497.3273</v>
+        <v>1604235.72662377</v>
       </c>
       <c r="AI104">
-        <v>868497.3273</v>
+        <v>1659868.65370711</v>
       </c>
       <c r="AJ104">
-        <v>868497.3273</v>
+        <v>1717430.8624568</v>
       </c>
       <c r="AK104">
-        <v>868497.3273</v>
+        <v>1776989.25799436</v>
       </c>
       <c r="AL104">
-        <v>868497.3273</v>
+        <v>1838613.06562888</v>
       </c>
       <c r="AM104">
-        <v>868497.3273</v>
+        <v>1902373.91131825</v>
       </c>
       <c r="AN104">
-        <v>868497.3273</v>
+        <v>1968345.90492069</v>
       </c>
       <c r="AO104">
-        <v>868497.3273</v>
+        <v>2036605.72633341</v>
       </c>
       <c r="AP104">
-        <v>868497.3273</v>
+        <v>2107232.71461841</v>
       </c>
       <c r="AQ104">
-        <v>868497.3273</v>
+        <v>2180308.96021901</v>
       </c>
       <c r="AR104">
-        <v>868497.3273</v>
+        <v>2255919.4003744</v>
       </c>
       <c r="AS104">
-        <v>868497.3273</v>
+        <v>2334151.91784306</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>33362.60858</v>
+        <v>33183.3692108051</v>
       </c>
       <c r="K111">
-        <v>33362.60858</v>
+        <v>29797.4021072387</v>
       </c>
       <c r="L111">
-        <v>33362.60858</v>
+        <v>30062.5076342299</v>
       </c>
       <c r="M111">
-        <v>33362.60858</v>
+        <v>32081.5924984002</v>
       </c>
       <c r="N111">
-        <v>33362.60858</v>
+        <v>34052.7325171703</v>
       </c>
       <c r="O111">
-        <v>33362.60858</v>
+        <v>33362.608580124</v>
       </c>
       <c r="P111">
-        <v>33362.60858</v>
+        <v>33362.61</v>
       </c>
       <c r="Q111">
-        <v>33362.60858</v>
+        <v>35179.1927178324</v>
       </c>
       <c r="R111">
-        <v>33362.60858</v>
+        <v>37094.6877441062</v>
       </c>
       <c r="S111">
-        <v>33362.60858</v>
+        <v>39114.4808202274</v>
       </c>
       <c r="T111">
-        <v>33362.60858</v>
+        <v>41244.2509393822</v>
       </c>
       <c r="U111">
-        <v>33362.60858</v>
+        <v>43489.9863139954</v>
       </c>
       <c r="V111">
-        <v>33362.60858</v>
+        <v>45858.0012126131</v>
       </c>
       <c r="W111">
-        <v>33362.60858</v>
+        <v>48354.9537135467</v>
       </c>
       <c r="X111">
-        <v>33362.60858</v>
+        <v>50987.8644251971</v>
       </c>
       <c r="Y111">
-        <v>33362.60858</v>
+        <v>53764.1362256946</v>
       </c>
       <c r="Z111">
-        <v>33362.60858</v>
+        <v>56691.5750773548</v>
       </c>
       <c r="AA111">
-        <v>33362.60858</v>
+        <v>59778.4119744747</v>
       </c>
       <c r="AB111">
-        <v>33362.60858</v>
+        <v>63033.3260861793</v>
       </c>
       <c r="AC111">
-        <v>33362.60858</v>
+        <v>66465.46915938761</v>
       </c>
       <c r="AD111">
-        <v>33362.60858</v>
+        <v>70084.491250512</v>
       </c>
       <c r="AE111">
-        <v>33362.60858</v>
+        <v>73900.5678582401</v>
       </c>
       <c r="AF111">
-        <v>33362.60858</v>
+        <v>77924.4285336873</v>
       </c>
       <c r="AG111">
-        <v>33362.60858</v>
+        <v>82167.38704836179</v>
       </c>
       <c r="AH111">
-        <v>33362.60858</v>
+        <v>86641.3732047657</v>
       </c>
       <c r="AI111">
-        <v>33362.60858</v>
+        <v>91358.9663790721</v>
       </c>
       <c r="AJ111">
-        <v>33362.60858</v>
+        <v>96333.4308901897</v>
       </c>
       <c r="AK111">
-        <v>33362.60858</v>
+        <v>101578.753294661</v>
       </c>
       <c r="AL111">
-        <v>33362.60858</v>
+        <v>107109.681712253</v>
       </c>
       <c r="AM111">
-        <v>33362.60858</v>
+        <v>112941.767292818</v>
       </c>
       <c r="AN111">
-        <v>33362.60858</v>
+        <v>119091.407941004</v>
       </c>
       <c r="AO111">
-        <v>33362.60858</v>
+        <v>125575.894421767</v>
       </c>
       <c r="AP111">
-        <v>33362.60858</v>
+        <v>132413.458976306</v>
       </c>
       <c r="AQ111">
-        <v>33362.60858</v>
+        <v>139623.326585128</v>
       </c>
       <c r="AR111">
-        <v>33362.60858</v>
+        <v>147225.76902236</v>
       </c>
       <c r="AS111">
-        <v>33362.60858</v>
+        <v>155242.161853305</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>189245.5729</v>
+        <v>191616.390889597</v>
       </c>
       <c r="K112">
-        <v>189245.5729</v>
+        <v>183780.936345654</v>
       </c>
       <c r="L112">
-        <v>189245.5729</v>
+        <v>187175.265813673</v>
       </c>
       <c r="M112">
-        <v>189245.5729</v>
+        <v>203489.457126293</v>
       </c>
       <c r="N112">
-        <v>189245.5729</v>
+        <v>198634.511450512</v>
       </c>
       <c r="O112">
-        <v>189245.5729</v>
+        <v>189245.572851842</v>
       </c>
       <c r="P112">
-        <v>189245.5729</v>
+        <v>189245.6</v>
       </c>
       <c r="Q112">
-        <v>189245.5729</v>
+        <v>194245.395873519</v>
       </c>
       <c r="R112">
-        <v>189245.5729</v>
+        <v>199377.284428596</v>
       </c>
       <c r="S112">
-        <v>189245.5729</v>
+        <v>204644.755503007</v>
       </c>
       <c r="T112">
-        <v>189245.5729</v>
+        <v>210051.391134701</v>
       </c>
       <c r="U112">
-        <v>189245.5729</v>
+        <v>215600.867997689</v>
       </c>
       <c r="V112">
-        <v>189245.5729</v>
+        <v>221296.959902294</v>
       </c>
       <c r="W112">
-        <v>189245.5729</v>
+        <v>227143.540361453</v>
       </c>
       <c r="X112">
-        <v>189245.5729</v>
+        <v>233144.585224826</v>
       </c>
       <c r="Y112">
-        <v>189245.5729</v>
+        <v>239304.175382486</v>
       </c>
       <c r="Z112">
-        <v>189245.5729</v>
+        <v>245626.499540053</v>
       </c>
       <c r="AA112">
-        <v>189245.5729</v>
+        <v>252115.857067136</v>
       </c>
       <c r="AB112">
-        <v>189245.5729</v>
+        <v>258776.660921033</v>
       </c>
       <c r="AC112">
-        <v>189245.5729</v>
+        <v>265613.440647675</v>
       </c>
       <c r="AD112">
-        <v>189245.5729</v>
+        <v>272630.845461851</v>
       </c>
       <c r="AE112">
-        <v>189245.5729</v>
+        <v>279833.647408814</v>
       </c>
       <c r="AF112">
-        <v>189245.5729</v>
+        <v>287226.744609417</v>
       </c>
       <c r="AG112">
-        <v>189245.5729</v>
+        <v>294815.164590979</v>
       </c>
       <c r="AH112">
-        <v>189245.5729</v>
+        <v>302604.067706153</v>
       </c>
       <c r="AI112">
-        <v>189245.5729</v>
+        <v>310598.750642123</v>
       </c>
       <c r="AJ112">
-        <v>189245.5729</v>
+        <v>318804.650022509</v>
       </c>
       <c r="AK112">
-        <v>189245.5729</v>
+        <v>327227.346104433</v>
       </c>
       <c r="AL112">
-        <v>189245.5729</v>
+        <v>335872.566573261</v>
       </c>
       <c r="AM112">
-        <v>189245.5729</v>
+        <v>344746.190437601</v>
       </c>
       <c r="AN112">
-        <v>189245.5729</v>
+        <v>353854.252027204</v>
       </c>
       <c r="AO112">
-        <v>189245.5729</v>
+        <v>363202.945096491</v>
       </c>
       <c r="AP112">
-        <v>189245.5729</v>
+        <v>372798.627036486</v>
       </c>
       <c r="AQ112">
-        <v>189245.5729</v>
+        <v>382647.823198039</v>
       </c>
       <c r="AR112">
-        <v>189245.5729</v>
+        <v>392757.231329254</v>
       </c>
       <c r="AS112">
-        <v>189245.5729</v>
+        <v>403133.726130163</v>
       </c>
     </row>
     <row r="113" spans="1:45">
